--- a/link.xlsx
+++ b/link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Project\kosha_finder\pehelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC018B4-A548-4532-BB3D-07E5ACD48E11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F6DB9A-5B87-44F1-BFE1-539007B67E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24660" yWindow="2850" windowWidth="20310" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,466 +28,451 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
+    <t>가스상_급성_독성물질의_하역_및_출하_시_안전기준에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>가스폭발_예방을_위한_폭연_방출구_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>가연성가스_또는_증기혼합물의_폭발한계_산정에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>공정배관계장도(P&amp;ID)_작성에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>공정용_안전밸브의_기술지침_</t>
+  </si>
+  <si>
+    <t>공정흐름도(PFD)_작성에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>과산화수소_저장설비의_안전에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>긴급차단밸브의_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>냉동_시스템의_설치_및_취급에_관한_안전기술지침_</t>
+  </si>
+  <si>
+    <t>무수암모니아_저장에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>미압배관에서의_폭연_벤팅_설치에_관한_기술지침</t>
+  </si>
+  <si>
+    <t>방유제_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>방호구조의_설계_및_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>배관계통의_공정설계에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>배관이나_덕트로_연결된_설비사이의_폭발격리시스템_설치에_관한_기술_지침</t>
+  </si>
+  <si>
+    <t>배관재질_선정에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>분진폭발방지에_관한_기술지침</t>
+  </si>
+  <si>
+    <t>상압저장탱크의_설계에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>수소_벤트스택_및_벤트배관의_공정설계에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>수소_저장설비의_안전에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>안전밸브_등의_배출용량_산정_및_설치_등에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>안전밸브_배출배관의_설계에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>액상_화학물질의_하역_및_출하장의_누출방지설비_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>연료전지의_설계_및_취급_안전_기술지침_</t>
+  </si>
+  <si>
+    <t>열매유_보일러에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>열팽창용_안전밸브의_기술지침_</t>
+  </si>
+  <si>
+    <t>염소저장설비에_관한_기술_지침</t>
+  </si>
+  <si>
+    <t>옥외_저장탱크의_포_소화설비_설계지침_</t>
+  </si>
+  <si>
+    <t>원심펌프의_최소유량_선정_및_펌프_설치_등에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>유지공장의_용제추출공정_안전설계_및_운전에_관한_기술지침</t>
+  </si>
+  <si>
+    <t>저장탱크의_형식선정에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>진한황산_및_발연황산_저장탱크의_공정설계에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>체크밸브_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>통기설비_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>파열판의_크기_산정_및_설치_등에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>폭발억제장치의_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>플레어시스템의_녹아웃드럼_설계_및_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>플레어시스템의_역화방지설비_설계_및_설치에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>화학공정의_시스템_디자인_크라이테리어에_관한_기술지침</t>
+  </si>
+  <si>
+    <t>화학설비_등의_공정설계에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>화학설비_배관_등의_비파괴검사_및_열처리에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>화학설비의_재질선정에_관한_기술지침_</t>
+  </si>
+  <si>
+    <t>활성탄_흡착설비의_안전설치에_관한_기술지침</t>
+  </si>
+  <si>
+    <t>가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가스폭발 예방을 위한 폭연 방출구 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가연성가스 또는 증기혼합물의 폭발한계 산정에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정배관계장도(P&amp;ID) 작성에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정용 안전밸브의 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공정흐름도(PFD) 작성에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과산화수소 저장설비의 안전에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급차단밸브의 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉동 시스템의 설치 및 취급에 관한 안전기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무수암모니아 저장에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미압배관에서의 폭연 벤팅 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방유제 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방호구조의 설계 및 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배관계통의 공정설계에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배관재질 선정에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분진폭발방지에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상압저장탱크의 설계에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수소 저장설비의 안전에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전밸브 배출배관의 설계에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연료전지의 설계 및 취급 안전 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열매유 보일러에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열팽창용 안전밸브의 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염소저장설비에 관한 기술 지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옥외 저장탱크의 포 소화설비 설계지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장탱크의 형식선정에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체크밸브 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통기설비 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파열판의 크기 산정 및 설치 등에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발억제장치의 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학설비 등의 공정설계에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학설비 배관 등의 비파괴검사 및 열처리에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학설비의 재질선정에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성탄 흡착설비의 안전설치에 관한 기술지침.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방호구조의 설계 및 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">배관재질 선정에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t>분진폭발방지에 관한 기술지침</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안전밸브 배출배관의 설계에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">연료전지의 설계 및 취급 안전 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
+  </si>
+  <si>
+    <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
+  </si>
+  <si>
+    <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">화학설비 배관 등의 비파괴검사 및 열처리에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
+  </si>
+  <si>
+    <t>활성탄 흡착설비의 안전설치에 관한 기술지침</t>
+  </si>
+  <si>
+    <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가스폭발 예방을 위한 폭연 방출구 설치에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가연성가스 또는 증기혼합물의 폭발한계 산정에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공정배관계장도(P&amp;ID) 작성에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공정용 안전밸브의 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공정흐름도(PFD) 작성에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>미압배관에서의 폭연 벤팅 설치에 관한 기술지침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>활성탄 흡착설비의 안전설치에 관한 기술지침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유지공장의 용제추출공정 안전설계 및 운전에 관한 기술지침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배관이나 덕트로 연결된 설비사이의 폭발격리시스템 설치에 관한 기술 지침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">냉동 시스템의 설치 및 취급에 관한 안전기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">긴급차단밸브의 설치에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">방유제 설치에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t>분진폭발방지에 관한 기술지침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>염소저장설비에 관한 기술 지침</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">가연성가스 또는 증기혼합물의 폭발한계 산정에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">방호구조의 설계 및 설치에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">과산화수소 저장설비의 안전에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">공정용 안전밸브의 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">공정흐름도(PFD) 작성에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">가스폭발 예방을 위한 폭연 방출구 설치에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">공정배관계장도(P&amp;ID) 작성에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">무수암모니아 저장에 관한 기술지침 </t>
-  </si>
-  <si>
-    <t>./templates/guide/가스상_급성_독성물질의_하역_및_출하시_안전기준에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가스상_급성_독성물질의_하역_및_출하_시_안전기준에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>가스폭발_예방을_위한_폭연_방출구_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>가연성가스_또는_증기혼합물의_폭발한계_산정에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>공정배관계장도(P&amp;ID)_작성에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>공정용_안전밸브의_기술지침_</t>
-  </si>
-  <si>
-    <t>공정흐름도(PFD)_작성에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>과산화수소_저장설비의_안전에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>긴급차단밸브의_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>냉동_시스템의_설치_및_취급에_관한_안전기술지침_</t>
-  </si>
-  <si>
-    <t>무수암모니아_저장에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>미압배관에서의_폭연_벤팅_설치에_관한_기술지침</t>
-  </si>
-  <si>
-    <t>방유제_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>방호구조의_설계_및_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>배관계통의_공정설계에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>배관이나_덕트로_연결된_설비사이의_폭발격리시스템_설치에_관한_기술_지침</t>
-  </si>
-  <si>
-    <t>배관재질_선정에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>분진폭발방지에_관한_기술지침</t>
-  </si>
-  <si>
-    <t>상압저장탱크의_설계에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>수소_벤트스택_및_벤트배관의_공정설계에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>수소_저장설비의_안전에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>안전밸브_등의_배출용량_산정_및_설치_등에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>안전밸브_배출배관의_설계에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>액상_화학물질의_하역_및_출하장의_누출방지설비_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>연료전지의_설계_및_취급_안전_기술지침_</t>
-  </si>
-  <si>
-    <t>열매유_보일러에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>열팽창용_안전밸브의_기술지침_</t>
-  </si>
-  <si>
-    <t>염소저장설비에_관한_기술_지침</t>
-  </si>
-  <si>
-    <t>옥외_저장탱크의_포_소화설비_설계지침_</t>
-  </si>
-  <si>
-    <t>원심펌프의_최소유량_선정_및_펌프_설치_등에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>유지공장의_용제추출공정_안전설계_및_운전에_관한_기술지침</t>
-  </si>
-  <si>
-    <t>저장탱크의_형식선정에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>진한황산_및_발연황산_저장탱크의_공정설계에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>체크밸브_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>통기설비_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>파열판의_크기_산정_및_설치_등에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>폭발억제장치의_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>플레어시스템의_녹아웃드럼_설계_및_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>플레어시스템의_역화방지설비_설계_및_설치에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>화학공정의_시스템_디자인_크라이테리어에_관한_기술지침</t>
-  </si>
-  <si>
-    <t>화학설비_등의_공정설계에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>화학설비_배관_등의_비파괴검사_및_열처리에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>화학설비의_재질선정에_관한_기술지침_</t>
-  </si>
-  <si>
-    <t>활성탄_흡착설비의_안전설치에_관한_기술지침</t>
-  </si>
-  <si>
-    <t>./templates/guide/가스폭발_예방을_위한_폭연_방출구_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/가연성가스_또는_증기혼합물의_폭발한계_산정에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/공정배관계장도(P&amp;ID)_작성에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/공정용_안전밸브의_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/공정흐름도(PFD)_작성에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/과산화수소_저장설비의_안전에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/긴급차단밸브의_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/냉동_시스템의_설치_및_취급에_관한_안전기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/무수암모니아_저장에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/미압배관에서의_폭연_벤팅_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/방유제_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/방호구조의_설계_및_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/배관계통의_공정설계에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/배관이나_덕트로_연결된_설비사이의_폭발격리시스템_설치에_관한_기술_지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/배관재질_선정에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/분진폭발방지에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/상압저장탱크의_설계에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/수소_벤트스택_및_벤트배관의_공정설계에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/수소_저장설비의_안전에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/안전밸브_등의_배출용량_산정_및_설치_등에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/안전밸브_배출배관의_설계에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/액상_화학물질의_하역_및_출하장의_누출방지설비_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/연료전지의_설계_및_취급_안전_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/열매유_보일러에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/열팽창용_안전밸브의_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/염소저장설비에_관한_기술_지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/옥외_저장탱크의_포_소화설비_설계지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/원심펌프의_최소유량_선정_및_펌프_설치_등에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/유지공장의_용제추출공정_안전설계_및_운전에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/저장탱크의_형식선정에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/진한황산_및_발연황산_저장탱크의_공정설계에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/체크밸브_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/통기설비_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/파열판의_크기_산정_및_설치_등에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/폭발억제장치의_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/플레어시스템의_녹아웃드럼_설계_및_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/플레어시스템의_역화방지설비_설계_및_설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/화학공정의_시스템_디자인_크라이테리어에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/화학설비_등의_공정설계에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/화학설비_배관_등의_비파괴검사_및_열처리에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/화학설비의_재질선정에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./templates/guide/활성탄_흡착설비의_안전설치에_관한_기술지침.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">배관계통의 공정설계에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">배관재질 선정에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상압저장탱크의 설계에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수소 벤트스택 및 벤트배관의 공정설계에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수소 저장설비의 안전에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">안전밸브 등의 배출용량 산정 및 설치 등에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">안전밸브 배출배관의 설계에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">액상 화학물질의 하역 및 출하장의 누출방지설비 설치에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">연료전지의 설계 및 취급 안전 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">열매유 보일러에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">열팽창용 안전밸브의 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">옥외 저장탱크의 포 소화설비 설계지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">원심펌프의 최소유량 선정 및 펌프 설치 등에 관한 기술지침 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">저장탱크의 형식선정에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">진한황산 및 발연황산 저장탱크의 공정설계에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">체크밸브 설치에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">통기설비 설치에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">파열판의 크기 산정 및 설치 등에 관한 기술지침 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">폭발억제장치의 설치에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레어시스템의 녹아웃드럼 설계 및 설치에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">플레어시스템의 역화방지설비 설계 및 설치에 관한 기술지침 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">화학설비 등의 공정설계에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">화학설비 배관 등의 비파괴검사 및 열처리에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">화학설비의 재질선정에 관한 기술지침 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가스상 급성 독성물질의 하역 및 출하 시 안전기준에 관한 기술지침 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -824,346 +811,346 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1185,217 +1172,217 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/link.xlsx
+++ b/link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\Project\kosha_finder\pehelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F6DB9A-5B87-44F1-BFE1-539007B67E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ADAB7A-1C3C-40BE-874D-7B824D57DB8B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24660" yWindow="2850" windowWidth="20310" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="20304" windowHeight="13236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>가스상_급성_독성물질의_하역_및_출하_시_안전기준에_관한_기술지침_</t>
   </si>
@@ -473,6 +473,14 @@
   </si>
   <si>
     <t>화학공정의 시스템 디자인 크라이테리어에 관한 기술지침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레어시스템의 설계설치 및 운전에 관한 기술지침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레어시스템의 설계설치 및 운전에 관한 기술지침.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1151,6 +1159,14 @@
       </c>
       <c r="B43" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
